--- a/target/test-classes/testData/ScheduleTestingTests.xlsx
+++ b/target/test-classes/testData/ScheduleTestingTests.xlsx
@@ -115,7 +115,7 @@
     <t>1234</t>
   </si>
   <si>
-    <t>lauren_july83@yopmail.com</t>
+    <t>lauren1200@yopmail.com</t>
   </si>
   <si>
     <t>Qwerty123@</t>
@@ -160,10 +160,10 @@
     <t>November 2018</t>
   </si>
   <si>
-    <t>23</t>
+    <t>27</t>
   </si>
   <si>
-    <t>9:00 AM</t>
+    <t>1:00 PM</t>
   </si>
 </sst>
 </file>
@@ -241,9 +241,6 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -264,6 +261,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -446,193 +446,193 @@
       <c r="E2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="Z2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AA2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AB2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="14" t="s">
+      <c r="AC2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="13" t="s">
+      <c r="AD2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AE2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
     </row>
     <row r="3">
-      <c r="A3" s="8">
+      <c r="A3" s="15">
         <v>2.0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="15">
         <v>1234.0</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="15">
         <v>3.0</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="V3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="W3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="X3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Y3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Z3" s="8">
+      <c r="Z3" s="15">
         <v>1.0</v>
       </c>
-      <c r="AA3" s="8">
+      <c r="AA3" s="15">
         <v>23.0</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AB3" s="15" t="s">
         <v>43</v>
       </c>
       <c r="AC3" s="16">
         <v>43405.0</v>
       </c>
-      <c r="AD3" s="8">
-        <v>21.0</v>
+      <c r="AD3" s="15">
+        <v>26.0</v>
       </c>
       <c r="AE3" s="17">
         <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -641,82 +641,82 @@
       <c r="E4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="W4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="Y4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="Z4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AA4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AB4" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AC4" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AD4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AE4" s="8" t="s">
         <v>50</v>
       </c>
     </row>

--- a/target/test-classes/testData/ScheduleTestingTests.xlsx
+++ b/target/test-classes/testData/ScheduleTestingTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F127D3-B369-1541-915C-81121DEAE2B9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1A0FC6-B51F-3841-B031-C83855283ED3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,7 +169,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>lauren.weiniger.19847@yopmail.com</t>
+    <t>lauren.weiniger.19848@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
   <dimension ref="A1:AH998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/target/test-classes/testData/ScheduleTestingTests.xlsx
+++ b/target/test-classes/testData/ScheduleTestingTests.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1A0FC6-B51F-3841-B031-C83855283ED3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B903B3C1-B17A-9241-9AA2-B5C6610A81EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,10 +166,10 @@
     <t>nA</t>
   </si>
   <si>
-    <t>6</t>
+    <t>14</t>
   </si>
   <si>
-    <t>lauren.weiniger.19848@yopmail.com</t>
+    <t>lauren.weiniger.19853@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
   <dimension ref="A1:AH998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
